--- a/teaching/traditional_assets/database/data/taiwan/taiwan_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/taiwan/taiwan_insurance_prop_cas.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0554</v>
+        <v>0.05445000000000001</v>
       </c>
       <c r="E2">
-        <v>0.0031</v>
+        <v>0.08965000000000001</v>
       </c>
       <c r="G2">
-        <v>0.1161791590493601</v>
+        <v>0.1198830409356725</v>
       </c>
       <c r="H2">
-        <v>0.1161791590493601</v>
+        <v>0.1198830409356725</v>
       </c>
       <c r="I2">
-        <v>0.1076136327185477</v>
+        <v>0.1188271604938271</v>
       </c>
       <c r="J2">
-        <v>0.09275903030684882</v>
+        <v>0.1056733024952206</v>
       </c>
       <c r="K2">
-        <v>101.8</v>
+        <v>116.3</v>
       </c>
       <c r="L2">
-        <v>0.09305301645338208</v>
+        <v>0.09446068875893436</v>
       </c>
       <c r="M2">
-        <v>48.32</v>
+        <v>48.56</v>
       </c>
       <c r="N2">
-        <v>0.04989673688558447</v>
+        <v>0.04806493120855192</v>
       </c>
       <c r="O2">
-        <v>0.4746561886051081</v>
+        <v>0.4175408426483233</v>
       </c>
       <c r="P2">
-        <v>48.32</v>
+        <v>48.56</v>
       </c>
       <c r="Q2">
-        <v>0.04989673688558447</v>
+        <v>0.04806493120855192</v>
       </c>
       <c r="R2">
-        <v>0.4746561886051081</v>
+        <v>0.4175408426483233</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>565.1</v>
+        <v>593.7</v>
       </c>
       <c r="V2">
-        <v>0.5835398595621645</v>
+        <v>0.5876472334950016</v>
       </c>
       <c r="W2">
-        <v>0.103419777192868</v>
+        <v>0.1082708019033663</v>
       </c>
       <c r="X2">
-        <v>0.04847345272878134</v>
+        <v>0.04410594435819223</v>
       </c>
       <c r="Y2">
-        <v>0.0549463244640867</v>
+        <v>0.06416485754517406</v>
       </c>
       <c r="Z2">
-        <v>2.415419317883505</v>
+        <v>2.659926113163523</v>
       </c>
       <c r="AA2">
-        <v>0.1753944474779768</v>
+        <v>0.179646926008999</v>
       </c>
       <c r="AB2">
-        <v>0.04832847608709424</v>
+        <v>0.04404330926094469</v>
       </c>
       <c r="AC2">
-        <v>0.1270529341056073</v>
+        <v>0.1355932252871089</v>
       </c>
       <c r="AD2">
-        <v>4.47</v>
+        <v>4.218</v>
       </c>
       <c r="AE2">
-        <v>4.423429029544303</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>8.893429029544302</v>
+        <v>4.218</v>
       </c>
       <c r="AG2">
-        <v>-556.2065709704557</v>
+        <v>-589.4820000000001</v>
       </c>
       <c r="AH2">
-        <v>0.009100060192132374</v>
+        <v>0.004157639391316862</v>
       </c>
       <c r="AI2">
-        <v>0.008607709630807181</v>
+        <v>0.003584546169940461</v>
       </c>
       <c r="AJ2">
-        <v>-1.349382430185681</v>
+        <v>-1.400800345992805</v>
       </c>
       <c r="AK2">
-        <v>-1.188238365412624</v>
+        <v>-1.011087136246223</v>
       </c>
       <c r="AL2">
-        <v>0.06900000000000001</v>
+        <v>0.091</v>
       </c>
       <c r="AM2">
-        <v>0.06900000000000001</v>
+        <v>0.091</v>
       </c>
       <c r="AN2">
-        <v>0.03619022944767394</v>
+        <v>0.02775</v>
       </c>
       <c r="AO2">
-        <v>1692.753623188406</v>
+        <v>1607.692307692308</v>
       </c>
       <c r="AP2">
-        <v>-4.503186448260568</v>
+        <v>-3.87817105263158</v>
       </c>
       <c r="AQ2">
-        <v>1692.753623188406</v>
+        <v>1607.692307692308</v>
       </c>
     </row>
     <row r="3">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0682</v>
+        <v>0.0722</v>
       </c>
       <c r="E3">
-        <v>0.0362</v>
+        <v>0.07629999999999999</v>
       </c>
       <c r="G3">
-        <v>0.1328971580453895</v>
+        <v>0.1229566453447051</v>
       </c>
       <c r="H3">
-        <v>0.1328971580453895</v>
+        <v>0.1229566453447051</v>
       </c>
       <c r="I3">
-        <v>0.1149034557072098</v>
+        <v>0.1432125088841507</v>
       </c>
       <c r="J3">
-        <v>0.09354446566180762</v>
+        <v>0.1192755609706569</v>
       </c>
       <c r="K3">
-        <v>47.3</v>
+        <v>58.3</v>
       </c>
       <c r="L3">
-        <v>0.09670823962379881</v>
+        <v>0.103589196872779</v>
       </c>
       <c r="M3">
-        <v>26.9</v>
+        <v>19.6</v>
       </c>
       <c r="N3">
-        <v>0.06597988717194014</v>
+        <v>0.04508856682769727</v>
       </c>
       <c r="O3">
-        <v>0.5687103594080338</v>
+        <v>0.3361921097770155</v>
       </c>
       <c r="P3">
-        <v>26.9</v>
+        <v>19.6</v>
       </c>
       <c r="Q3">
-        <v>0.06597988717194014</v>
+        <v>0.04508856682769727</v>
       </c>
       <c r="R3">
-        <v>0.5687103594080338</v>
+        <v>0.3361921097770155</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,55 +773,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>337</v>
+        <v>360.2</v>
       </c>
       <c r="V3">
-        <v>0.8265881775815551</v>
+        <v>0.8286174373130895</v>
       </c>
       <c r="W3">
-        <v>0.1373801916932907</v>
+        <v>0.1649222065063649</v>
       </c>
       <c r="X3">
-        <v>0.04842449285396117</v>
+        <v>0.04411646540795676</v>
       </c>
       <c r="Y3">
-        <v>0.08895569883932955</v>
+        <v>0.1208057410984082</v>
       </c>
       <c r="Z3">
-        <v>10.22930734212705</v>
+        <v>31.52941176470584</v>
       </c>
       <c r="AA3">
-        <v>0.9568950894096805</v>
+        <v>3.760688275310119</v>
       </c>
       <c r="AB3">
-        <v>0.04832520043243398</v>
+        <v>0.04404458485279544</v>
       </c>
       <c r="AC3">
-        <v>0.9085698889772466</v>
+        <v>3.716643690457324</v>
       </c>
       <c r="AD3">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AE3">
-        <v>0.5135990680184198</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.86359906801842</v>
+        <v>1.28</v>
       </c>
       <c r="AG3">
-        <v>-335.1364009319816</v>
+        <v>-358.92</v>
       </c>
       <c r="AH3">
-        <v>0.004550206786587307</v>
+        <v>0.002935914491490436</v>
       </c>
       <c r="AI3">
-        <v>0.005244203606970217</v>
+        <v>0.003007660134404812</v>
       </c>
       <c r="AJ3">
-        <v>-4.61851955024774</v>
+        <v>-4.736342042755346</v>
       </c>
       <c r="AK3">
-        <v>-18.25003909585714</v>
+        <v>-5.48975221780361</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.02331525681323616</v>
+        <v>0.01549636803874092</v>
       </c>
       <c r="AP3">
-        <v>-5.787993522365058</v>
+        <v>-4.345278450363197</v>
       </c>
     </row>
     <row r="4">
@@ -853,46 +853,46 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0641</v>
+        <v>0.07150000000000001</v>
       </c>
       <c r="E4">
-        <v>0.0292</v>
+        <v>0.233</v>
       </c>
       <c r="G4">
-        <v>0.0833004342676668</v>
+        <v>0.08937544867193108</v>
       </c>
       <c r="H4">
-        <v>0.0833004342676668</v>
+        <v>0.08937544867193108</v>
       </c>
       <c r="I4">
-        <v>0.09151878243423041</v>
+        <v>0.08111988513998564</v>
       </c>
       <c r="J4">
-        <v>0.09151878243423041</v>
+        <v>0.08062971391913977</v>
       </c>
       <c r="K4">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="L4">
-        <v>0.09119621002763521</v>
+        <v>0.08363244795405599</v>
       </c>
       <c r="M4">
-        <v>6.17</v>
+        <v>6.47</v>
       </c>
       <c r="N4">
-        <v>0.03827543424317618</v>
+        <v>0.03835210432720806</v>
       </c>
       <c r="O4">
-        <v>0.2670995670995671</v>
+        <v>0.2776824034334764</v>
       </c>
       <c r="P4">
-        <v>6.17</v>
+        <v>6.47</v>
       </c>
       <c r="Q4">
-        <v>0.03827543424317618</v>
+        <v>0.03835210432720806</v>
       </c>
       <c r="R4">
-        <v>0.2670995670995671</v>
+        <v>0.2776824034334764</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -901,73 +901,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>73.09999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="V4">
-        <v>0.4534739454094293</v>
+        <v>0.4617664493183166</v>
       </c>
       <c r="W4">
-        <v>0.147040101845958</v>
+        <v>0.1349160393746381</v>
       </c>
       <c r="X4">
-        <v>0.0485224126036015</v>
+        <v>0.04409542330842771</v>
       </c>
       <c r="Y4">
-        <v>0.0985176892423565</v>
+        <v>0.09082061606621041</v>
       </c>
       <c r="Z4">
-        <v>2.482445930781175</v>
+        <v>2.778276391631266</v>
       </c>
       <c r="AA4">
-        <v>0.2271904290439029</v>
+        <v>0.2240116306455288</v>
       </c>
       <c r="AB4">
-        <v>0.0483317517417545</v>
+        <v>0.04404203366909394</v>
       </c>
       <c r="AC4">
-        <v>0.1788586773021484</v>
+        <v>0.1799695969764349</v>
       </c>
       <c r="AD4">
-        <v>0.678</v>
+        <v>0.369</v>
       </c>
       <c r="AE4">
-        <v>0.7364620470471716</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.414462047047172</v>
+        <v>0.369</v>
       </c>
       <c r="AG4">
-        <v>-71.68553795295283</v>
+        <v>-77.53100000000001</v>
       </c>
       <c r="AH4">
-        <v>0.00869825493527103</v>
+        <v>0.002182540856100172</v>
       </c>
       <c r="AI4">
-        <v>0.008086592900858707</v>
+        <v>0.001850839398301642</v>
       </c>
       <c r="AJ4">
-        <v>-0.8008263280996564</v>
+        <v>-0.8504096787285154</v>
       </c>
       <c r="AK4">
-        <v>-0.7040801130965839</v>
+        <v>-0.6382780791806963</v>
       </c>
       <c r="AL4">
-        <v>0.066</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="AM4">
-        <v>0.066</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="AN4">
-        <v>0.02708857725038955</v>
+        <v>0.01506122448979592</v>
       </c>
       <c r="AO4">
-        <v>346.9696969696969</v>
+        <v>262.7906976744187</v>
       </c>
       <c r="AP4">
-        <v>-2.86409916308893</v>
+        <v>-3.164530612244898</v>
       </c>
       <c r="AQ4">
-        <v>346.9696969696969</v>
+        <v>262.7906976744187</v>
       </c>
     </row>
     <row r="5">
@@ -987,46 +987,46 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0467</v>
+        <v>0.0211</v>
       </c>
       <c r="E5">
-        <v>-0.023</v>
+        <v>-0.09390000000000001</v>
       </c>
       <c r="G5">
-        <v>0.137888956680903</v>
+        <v>0.1619870410367171</v>
       </c>
       <c r="H5">
-        <v>0.137888956680903</v>
+        <v>0.1619870410367171</v>
       </c>
       <c r="I5">
-        <v>0.1451461655768623</v>
+        <v>0.152267818574514</v>
       </c>
       <c r="J5">
-        <v>0.1201316136370201</v>
+        <v>0.1348001141040792</v>
       </c>
       <c r="K5">
-        <v>19.4</v>
+        <v>23.5</v>
       </c>
       <c r="L5">
-        <v>0.1183648566198902</v>
+        <v>0.126889848812095</v>
       </c>
       <c r="M5">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="N5">
-        <v>0.04150197628458498</v>
+        <v>0.04729474082482028</v>
       </c>
       <c r="O5">
-        <v>0.5412371134020619</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="P5">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="Q5">
-        <v>0.04150197628458498</v>
+        <v>0.04729474082482028</v>
       </c>
       <c r="R5">
-        <v>0.5412371134020619</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1035,55 +1035,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>105.7</v>
+        <v>97.7</v>
       </c>
       <c r="V5">
-        <v>0.4177865612648222</v>
+        <v>0.3696556942867953</v>
       </c>
       <c r="W5">
-        <v>0.06945936269244539</v>
+        <v>0.08162556443209448</v>
       </c>
       <c r="X5">
-        <v>0.04881914003202139</v>
+        <v>0.04428907441816117</v>
       </c>
       <c r="Y5">
-        <v>0.020640222660424</v>
+        <v>0.03733649001393331</v>
       </c>
       <c r="Z5">
-        <v>1.028858783879369</v>
+        <v>1.003576460387992</v>
       </c>
       <c r="AA5">
-        <v>0.1235984659120507</v>
+        <v>0.1352822213724692</v>
       </c>
       <c r="AB5">
-        <v>0.0483512750029845</v>
+        <v>0.04406536777468631</v>
       </c>
       <c r="AC5">
-        <v>0.07524719090906624</v>
+        <v>0.09121685359778292</v>
       </c>
       <c r="AD5">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="AE5">
-        <v>3.102717309761323</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>5.442717309761323</v>
+        <v>2.42</v>
       </c>
       <c r="AG5">
-        <v>-100.2572826902387</v>
+        <v>-95.28</v>
       </c>
       <c r="AH5">
-        <v>0.02105966601193816</v>
+        <v>0.009073185362927413</v>
       </c>
       <c r="AI5">
-        <v>0.01855412453963864</v>
+        <v>0.007503410641200544</v>
       </c>
       <c r="AJ5">
-        <v>-0.6563801172066196</v>
+        <v>-0.5637202697905573</v>
       </c>
       <c r="AK5">
-        <v>-0.5342988213325306</v>
+        <v>-0.4238057112356551</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1092,10 +1092,10 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.09208972845336481</v>
+        <v>0.08259385665529009</v>
       </c>
       <c r="AP5">
-        <v>-3.945583734365946</v>
+        <v>-3.251877133105802</v>
       </c>
     </row>
     <row r="6">
@@ -1115,46 +1115,46 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0373</v>
+        <v>0.0374</v>
       </c>
       <c r="E6">
-        <v>-0.0412</v>
+        <v>0.103</v>
       </c>
       <c r="G6">
-        <v>0.09802876931273308</v>
+        <v>0.1148582600195504</v>
       </c>
       <c r="H6">
-        <v>0.09802876931273308</v>
+        <v>0.1148582600195504</v>
       </c>
       <c r="I6">
-        <v>0.07756457047978968</v>
+        <v>0.07282502443792767</v>
       </c>
       <c r="J6">
-        <v>0.06252333282593858</v>
+        <v>0.0615453589986697</v>
       </c>
       <c r="K6">
-        <v>12</v>
+        <v>11.2</v>
       </c>
       <c r="L6">
-        <v>0.06393180607352159</v>
+        <v>0.05474095796676442</v>
       </c>
       <c r="M6">
-        <v>4.75</v>
+        <v>9.99</v>
       </c>
       <c r="N6">
-        <v>0.03242320819112628</v>
+        <v>0.07005610098176719</v>
       </c>
       <c r="O6">
-        <v>0.3958333333333333</v>
+        <v>0.8919642857142858</v>
       </c>
       <c r="P6">
-        <v>4.75</v>
+        <v>9.99</v>
       </c>
       <c r="Q6">
-        <v>0.03242320819112628</v>
+        <v>0.07005610098176719</v>
       </c>
       <c r="R6">
-        <v>0.3958333333333333</v>
+        <v>0.8919642857142858</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1163,73 +1163,73 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>49.3</v>
+        <v>57.9</v>
       </c>
       <c r="V6">
-        <v>0.336518771331058</v>
+        <v>0.406030855539972</v>
       </c>
       <c r="W6">
-        <v>0.06015037593984962</v>
+        <v>0.05348615090735434</v>
       </c>
       <c r="X6">
-        <v>0.04834546648516243</v>
+        <v>0.0440636776795776</v>
       </c>
       <c r="Y6">
-        <v>0.01180490945468719</v>
+        <v>0.009422473227776743</v>
       </c>
       <c r="Z6">
-        <v>1.305551579620112</v>
+        <v>1.277137613762625</v>
       </c>
       <c r="AA6">
-        <v>0.08162743593401811</v>
+        <v>0.0786018929297251</v>
       </c>
       <c r="AB6">
-        <v>0.0483198730674576</v>
+        <v>0.04403817746533634</v>
       </c>
       <c r="AC6">
-        <v>0.03330756286656051</v>
+        <v>0.03456371546438876</v>
       </c>
       <c r="AD6">
-        <v>0.102</v>
+        <v>0.149</v>
       </c>
       <c r="AE6">
-        <v>0.07065060471738813</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.1726506047173881</v>
+        <v>0.149</v>
       </c>
       <c r="AG6">
-        <v>-49.12734939528261</v>
+        <v>-57.751</v>
       </c>
       <c r="AH6">
-        <v>0.001177115188179706</v>
+        <v>0.001043790149142901</v>
       </c>
       <c r="AI6">
-        <v>0.0008238222125797833</v>
+        <v>0.0006499483094800849</v>
       </c>
       <c r="AJ6">
-        <v>-0.5045292398859947</v>
+        <v>-0.6806326533017478</v>
       </c>
       <c r="AK6">
-        <v>-0.3065235971946708</v>
+        <v>-0.3370372748017205</v>
       </c>
       <c r="AL6">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="AM6">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="AN6">
-        <v>0.006722467541026823</v>
+        <v>0.009551282051282051</v>
       </c>
       <c r="AO6">
-        <v>4833.333333333333</v>
+        <v>2980</v>
       </c>
       <c r="AP6">
-        <v>-3.237813840063442</v>
+        <v>-3.701987179487179</v>
       </c>
       <c r="AQ6">
-        <v>4833.333333333333</v>
+        <v>2980</v>
       </c>
     </row>
   </sheetData>
